--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,12 @@
       <c r="AD1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -671,6 +677,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -726,33 +742,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>2</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>5</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -809,6 +825,16 @@
         </is>
       </c>
       <c r="AD3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -858,73 +884,83 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>11</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
       </c>
       <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>2</v>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U4" t="n">
+      <c r="U4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V4" t="n">
         <v>1</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>5</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3</v>
       </c>
       <c r="Y4" t="n">
         <v>3</v>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
+      <c r="Z4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
         <v>2</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>1</v>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="AD4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -964,74 +1000,84 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>10</v>
       </c>
       <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
         <v>9</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>8</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>7</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
       </c>
       <c r="R5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" t="n">
         <v>16</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>24</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>29</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>24</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>16</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>4</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>2</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
       </c>
       <c r="AA5" t="n">
         <v>4</v>
       </c>
       <c r="AB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>12</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>2</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1063,8 +1109,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>2</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1128,12 +1176,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1177,6 +1225,16 @@
         </is>
       </c>
       <c r="AD6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -1212,7 +1270,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1276,17 +1334,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1325,6 +1383,16 @@
         </is>
       </c>
       <c r="AD7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -1349,14 +1417,18 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1370,22 +1442,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1400,32 +1472,32 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1445,32 +1517,42 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1483,17 +1565,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1510,12 +1596,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1530,7 +1616,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1540,7 +1626,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1555,17 +1641,17 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1575,7 +1661,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1585,7 +1671,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1605,12 +1691,22 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1623,24 +1719,20 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1654,27 +1746,27 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1684,7 +1776,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1699,17 +1791,17 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1719,7 +1811,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1729,7 +1821,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1744,17 +1836,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1778,13 +1880,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1798,12 +1900,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1818,7 +1920,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1828,7 +1930,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1843,12 +1945,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1858,12 +1960,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1873,7 +1975,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1893,12 +1995,22 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1925,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1942,17 +2054,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1962,7 +2074,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1972,7 +2084,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1987,7 +2099,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2002,12 +2114,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2017,7 +2129,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2032,17 +2144,27 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2086,12 +2208,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2106,7 +2228,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2116,7 +2238,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2131,7 +2253,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2146,12 +2268,12 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2161,7 +2283,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2176,17 +2298,27 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -2230,12 +2362,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2245,12 +2377,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2260,7 +2392,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2275,7 +2407,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2290,12 +2422,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2305,7 +2437,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2320,17 +2452,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -2374,12 +2516,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2389,12 +2531,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2404,7 +2546,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2419,7 +2561,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2434,12 +2576,12 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2449,7 +2591,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2464,17 +2606,27 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -2518,12 +2670,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2533,12 +2685,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2548,7 +2700,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2563,7 +2715,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2578,12 +2730,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2593,7 +2745,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2608,17 +2760,27 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -2636,14 +2798,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -2660,12 +2824,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2675,22 +2839,22 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2705,7 +2869,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2720,22 +2884,22 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2750,17 +2914,27 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -2778,19 +2952,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="D18" t="n">
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2809,7 +2981,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2824,32 +2996,32 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2864,17 +3036,17 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2894,17 +3066,27 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -2928,13 +3110,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2953,12 +3135,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2968,32 +3150,32 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -3018,7 +3200,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3033,22 +3215,32 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
           <t>.</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -3071,18 +3263,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3106,37 +3294,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3166,35 +3354,45 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3230,7 +3428,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3264,7 +3462,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3324,7 +3522,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3339,10 +3537,20 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3378,7 +3586,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -3412,17 +3620,17 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3462,7 +3670,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3487,10 +3695,20 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3526,7 +3744,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3550,37 +3768,37 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3610,35 +3828,45 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3674,7 +3902,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3718,17 +3946,17 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3753,22 +3981,22 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3787,6 +4015,16 @@
         </is>
       </c>
       <c r="AD24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3816,8 +4054,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>2</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -3839,12 +4079,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3874,7 +4114,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3899,12 +4139,12 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3933,6 +4173,16 @@
         </is>
       </c>
       <c r="AD25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3963,7 +4213,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -3980,12 +4230,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4015,12 +4265,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -4045,7 +4295,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -4060,25 +4310,35 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4109,7 +4369,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -4126,12 +4386,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4161,12 +4421,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -4191,7 +4451,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -4206,25 +4466,35 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4255,7 +4525,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -4272,7 +4542,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4307,12 +4577,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -4337,7 +4607,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -4352,25 +4622,35 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4400,13 +4680,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F29" t="n">
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -4420,7 +4698,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4455,12 +4733,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4485,7 +4763,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -4500,25 +4778,35 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4568,7 +4856,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4633,7 +4921,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -4667,6 +4955,16 @@
         </is>
       </c>
       <c r="AD30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4702,7 +5000,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4716,12 +5014,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -4815,6 +5113,16 @@
         </is>
       </c>
       <c r="AD31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4850,7 +5158,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4859,17 +5167,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4934,7 +5242,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4963,6 +5271,16 @@
         </is>
       </c>
       <c r="AD32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4998,26 +5316,26 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5111,6 +5429,16 @@
         </is>
       </c>
       <c r="AD33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -5146,119 +5474,287 @@
         </is>
       </c>
       <c r="G34" t="n">
+        <v>17</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>18</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
         <is>
           <t>x</t>
         </is>

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,79 +453,70 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>19</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -672,21 +663,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -747,58 +723,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -820,21 +802,6 @@
         </is>
       </c>
       <c r="AC3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -889,78 +856,93 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X4" t="n">
         <v>1</v>
       </c>
-      <c r="W4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4</v>
-      </c>
       <c r="Y4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1005,76 +987,103 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>16</v>
-      </c>
-      <c r="T5" t="n">
-        <v>24</v>
-      </c>
-      <c r="U5" t="n">
-        <v>29</v>
-      </c>
-      <c r="V5" t="n">
-        <v>24</v>
-      </c>
-      <c r="W5" t="n">
-        <v>16</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="n">
         <v>1</v>
       </c>
-      <c r="AA5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1082,7 +1091,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1116,133 +1125,114 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1269,138 +1259,121 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>2</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1427,138 +1400,121 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="Y8" t="n">
+        <v>1</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1575,294 +1531,270 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="Y10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1879,298 +1811,254 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>6</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>27</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2187,298 +2075,204 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>21</v>
+      </c>
+      <c r="O13" t="n">
+        <v>29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R13" t="n">
+        <v>27</v>
+      </c>
+      <c r="S13" t="n">
+        <v>27</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>27</v>
+      </c>
+      <c r="W13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>30</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>31</v>
+      </c>
+      <c r="K14" t="n">
+        <v>30</v>
+      </c>
+      <c r="L14" t="n">
+        <v>31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" t="n">
         <v>8</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8</v>
+      </c>
+      <c r="T14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="V14" t="n">
+        <v>8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2495,33 +2289,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I15" t="n">
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2536,37 +2330,37 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2581,7 +2375,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2596,86 +2390,71 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>10</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I16" t="n">
+        <v>6</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2690,37 +2469,37 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2735,58 +2514,43 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2803,33 +2567,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I17" t="n">
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2844,37 +2608,37 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2889,12 +2653,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2904,43 +2668,28 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2952,36 +2701,38 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I18" t="n">
+        <v>6</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2996,37 +2747,37 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3041,58 +2792,43 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3109,38 +2845,38 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3150,37 +2886,37 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3200,53 +2936,38 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3264,27 +2985,23 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3294,37 +3011,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3334,7 +3051,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3354,53 +3071,38 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3422,23 +3124,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F21" t="n">
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>17</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -3452,17 +3148,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3477,7 +3173,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3492,7 +3188,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -3507,100 +3203,73 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3610,32 +3279,32 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3650,7 +3319,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -3665,58 +3334,43 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3733,28 +3387,20 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -3768,37 +3414,37 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3808,7 +3454,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3823,58 +3469,43 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3886,37 +3517,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3926,7 +3547,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3936,27 +3557,27 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3966,7 +3587,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -3981,58 +3602,43 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4060,61 +3666,57 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -4124,7 +3726,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4139,58 +3741,43 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4212,30 +3799,28 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="n">
-        <v>5</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I26" t="n">
+        <v>6</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4250,27 +3835,27 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -4280,7 +3865,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -4295,58 +3880,43 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4368,30 +3938,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4411,22 +3981,22 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -4436,7 +4006,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -4456,53 +4026,38 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4524,25 +4079,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>5</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4572,17 +4125,17 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -4592,7 +4145,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -4607,7 +4160,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -4622,43 +4175,28 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4680,25 +4218,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
         <v>6</v>
       </c>
-      <c r="G29" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4733,12 +4269,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4748,7 +4284,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -4763,58 +4299,43 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4842,21 +4363,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4906,7 +4423,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -4921,7 +4438,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -4936,43 +4453,28 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -5000,26 +4502,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5064,7 +4562,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -5079,58 +4577,43 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -5158,26 +4641,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -5222,7 +4701,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -5237,12 +4716,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5252,43 +4731,28 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -5315,27 +4779,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>15</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5380,7 +4842,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -5405,48 +4867,33 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -5473,18 +4920,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>17</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -5538,7 +4983,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -5568,195 +5013,2840 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>18</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>x</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>■</t>
         </is>
       </c>
     </row>

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AD68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,63 +459,66 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -663,6 +666,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -758,10 +766,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="T3" t="n">
+        <v>5</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -778,8 +784,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="X3" t="n">
-        <v>1</v>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -802,6 +810,11 @@
         </is>
       </c>
       <c r="AC3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -901,10 +914,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="T4" t="n">
+        <v>1</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -921,11 +932,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -943,6 +958,11 @@
         </is>
       </c>
       <c r="AC4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1042,15 +1062,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1062,11 +1078,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -1084,6 +1104,11 @@
         </is>
       </c>
       <c r="AC5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1183,15 +1208,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1203,11 +1224,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="X6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
@@ -1225,6 +1250,11 @@
         </is>
       </c>
       <c r="AC6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1324,15 +1354,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1344,11 +1370,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="X7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3</v>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
@@ -1366,6 +1396,11 @@
         </is>
       </c>
       <c r="AC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1460,20 +1495,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1485,11 +1514,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="X8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1</v>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
@@ -1507,6 +1540,11 @@
         </is>
       </c>
       <c r="AC8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1601,20 +1639,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1626,11 +1658,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="X9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1</v>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
@@ -1648,6 +1684,11 @@
         </is>
       </c>
       <c r="AC9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1742,34 +1783,32 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
         <v>2</v>
       </c>
-      <c r="Y10" t="n">
-        <v>2</v>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -1787,6 +1826,11 @@
         </is>
       </c>
       <c r="AC10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1856,8 +1900,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="N11" t="n">
-        <v>6</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1879,34 +1925,32 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1</v>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
@@ -1924,6 +1968,11 @@
         </is>
       </c>
       <c r="AC11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1973,21 +2022,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>6</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -2002,35 +2053,37 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>5</v>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>27</v>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Y12" t="n">
         <v>1</v>
@@ -2051,6 +2104,11 @@
         </is>
       </c>
       <c r="AC12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2100,35 +2158,47 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
-      </c>
-      <c r="O13" t="n">
-        <v>29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="R13" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
@@ -2137,22 +2207,28 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>27</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2160,6 +2236,11 @@
         </is>
       </c>
       <c r="AC13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2209,70 +2290,91 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>31</v>
-      </c>
-      <c r="K14" t="n">
-        <v>30</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="L14" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8</v>
-      </c>
-      <c r="P14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="n">
         <v>2</v>
       </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8</v>
-      </c>
       <c r="Z14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2299,119 +2401,100 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>10</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2438,397 +2521,316 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>10</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>■</t>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>2</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z17" t="n">
         <v>10</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+      <c r="AA17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
         <v>6</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2850,124 +2852,125 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F19" t="n">
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2979,10 +2982,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="D20" t="n">
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -2991,118 +2992,121 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3125,121 +3129,124 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3253,124 +3260,127 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3382,130 +3392,131 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="D23" t="n">
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3517,27 +3528,39 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3547,7 +3570,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3557,17 +3580,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3577,12 +3600,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -3592,12 +3615,12 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3617,28 +3640,33 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3665,63 +3693,69 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>10</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -3731,12 +3765,12 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3746,38 +3780,43 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3804,119 +3843,128 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>10</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3948,116 +3996,121 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>10</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4084,119 +4137,124 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>10</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4223,119 +4281,124 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>10</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4362,119 +4425,124 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>10</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
         <v>4</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4501,119 +4569,126 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>10</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4640,119 +4715,126 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>10</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+      <c r="J32" t="n">
+        <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4784,116 +4866,121 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>10</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4925,70 +5012,70 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>10</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -4998,43 +5085,48 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -5061,53 +5153,55 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>10</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -5117,7 +5211,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -5127,7 +5221,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -5152,28 +5246,33 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -5200,53 +5299,57 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>10</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -5261,7 +5364,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -5281,38 +5384,43 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -5339,53 +5447,55 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>10</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -5395,7 +5505,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -5405,7 +5515,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -5430,28 +5540,33 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5478,53 +5593,53 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>10</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -5534,17 +5649,17 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -5554,43 +5669,48 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -5618,52 +5738,50 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -5673,17 +5791,17 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -5693,43 +5811,48 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5762,69 +5885,67 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -5834,43 +5955,48 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5897,77 +6023,71 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>20</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -5977,43 +6097,48 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -6035,126 +6160,125 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -6181,121 +6305,122 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="G43" t="n">
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -6327,35 +6452,37 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J44" t="n">
         <v>5</v>
       </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6375,68 +6502,73 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -6468,116 +6600,121 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>4</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -6610,115 +6747,118 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -6750,72 +6890,68 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="H47" t="n">
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -6825,43 +6961,48 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -6894,69 +7035,67 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -6966,43 +7105,48 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -7029,121 +7173,122 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="G49" t="n">
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -7170,40 +7315,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="G50" t="n">
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -7223,68 +7364,73 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -7317,79 +7463,77 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -7399,33 +7543,38 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -7457,45 +7606,45 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v>10</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>14</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -7515,12 +7664,12 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -7550,23 +7699,28 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -7604,249 +7758,2277 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>17</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>20</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>■</t>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>12</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>15</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -5639,7 +5639,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -7523,7 +7523,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>x</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>■</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,79 +453,70 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>19</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -672,21 +663,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -747,58 +723,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -820,21 +802,6 @@
         </is>
       </c>
       <c r="AC3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -889,78 +856,93 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X4" t="n">
         <v>1</v>
       </c>
-      <c r="W4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4</v>
-      </c>
       <c r="Y4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1005,76 +987,103 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>16</v>
-      </c>
-      <c r="T5" t="n">
-        <v>24</v>
-      </c>
-      <c r="U5" t="n">
-        <v>29</v>
-      </c>
-      <c r="V5" t="n">
-        <v>24</v>
-      </c>
-      <c r="W5" t="n">
-        <v>16</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="n">
         <v>1</v>
       </c>
-      <c r="AA5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1082,7 +1091,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1116,133 +1125,114 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1269,138 +1259,121 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>2</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1427,138 +1400,121 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="Y8" t="n">
+        <v>1</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1575,294 +1531,270 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="Y10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1879,298 +1811,254 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>6</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>27</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2187,298 +2075,204 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>21</v>
+      </c>
+      <c r="O13" t="n">
+        <v>29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R13" t="n">
+        <v>27</v>
+      </c>
+      <c r="S13" t="n">
+        <v>27</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>27</v>
+      </c>
+      <c r="W13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>30</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>31</v>
+      </c>
+      <c r="K14" t="n">
+        <v>30</v>
+      </c>
+      <c r="L14" t="n">
+        <v>31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" t="n">
         <v>8</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8</v>
+      </c>
+      <c r="T14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="V14" t="n">
+        <v>8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2495,33 +2289,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I15" t="n">
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2536,17 +2330,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2566,7 +2360,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2581,7 +2375,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2596,86 +2390,71 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t>■</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>10</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I16" t="n">
+        <v>6</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2690,17 +2469,17 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2720,7 +2499,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2735,58 +2514,43 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>■</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2803,33 +2567,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I17" t="n">
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2844,22 +2608,22 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2874,7 +2638,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2889,7 +2653,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2904,43 +2668,28 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
           <t>■</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2952,36 +2701,38 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I18" t="n">
+        <v>6</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2996,22 +2747,22 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3021,12 +2772,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3046,53 +2797,38 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
           <t>■</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3109,33 +2845,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3155,32 +2891,32 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3210,12 +2946,12 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3226,27 +2962,12 @@
       <c r="AC19" t="inlineStr">
         <is>
           <t>■</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3264,27 +2985,23 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3299,7 +3016,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3314,7 +3031,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3324,7 +3041,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3334,7 +3051,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3354,17 +3071,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3380,27 +3097,12 @@
       <c r="AC20" t="inlineStr">
         <is>
           <t>■</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3422,23 +3124,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F21" t="n">
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>17</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -3457,12 +3153,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3477,7 +3173,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3492,7 +3188,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -3507,17 +3203,17 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3538,69 +3234,42 @@
       <c r="AC21" t="inlineStr">
         <is>
           <t>■</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3610,7 +3279,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3635,7 +3304,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3650,7 +3319,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -3665,7 +3334,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -3675,7 +3344,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3695,28 +3364,13 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3733,28 +3387,20 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -3793,7 +3439,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3808,7 +3454,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3823,7 +3469,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -3833,7 +3479,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3848,33 +3494,18 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3886,37 +3517,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3926,7 +3547,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3936,17 +3557,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3966,7 +3587,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -3981,12 +3602,12 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3996,43 +3617,28 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4060,61 +3666,57 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -4124,7 +3726,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4139,58 +3741,43 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4212,30 +3799,28 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="n">
-        <v>5</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="I26" t="n">
+        <v>6</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4250,27 +3835,27 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -4280,7 +3865,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -4295,58 +3880,43 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4368,25 +3938,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4411,22 +3981,22 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -4436,7 +4006,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -4456,53 +4026,38 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4524,25 +4079,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>5</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4572,17 +4125,17 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -4592,7 +4145,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -4607,7 +4160,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -4622,43 +4175,28 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4680,25 +4218,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
         <v>6</v>
       </c>
-      <c r="G29" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4733,12 +4269,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4748,7 +4284,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -4763,58 +4299,43 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4842,21 +4363,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4906,7 +4423,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -4921,7 +4438,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -4936,43 +4453,28 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -5000,21 +4502,17 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5064,7 +4562,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -5079,58 +4577,43 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -5158,21 +4641,17 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5222,7 +4701,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -5237,12 +4716,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5252,43 +4731,28 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -5315,18 +4779,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>15</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -5380,7 +4842,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -5405,48 +4867,33 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -5473,18 +4920,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>17</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -5538,7 +4983,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -5568,195 +5013,2840 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>18</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>x</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>■</t>
         </is>
       </c>
     </row>

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,49 +450,94 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -599,6 +644,81 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -649,45 +769,124 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="W3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -727,51 +926,134 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -803,55 +1085,120 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="X5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>12</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9</v>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -873,88 +1220,113 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -966,33 +1338,37 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1017,35 +1393,110 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -1053,43 +1504,49 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1114,7 +1571,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1144,61 +1601,138 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1213,7 +1747,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1238,18 +1772,93 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1261,28 +1870,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1312,7 +1923,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1322,64 +1933,143 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1404,17 +2094,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1438,6 +2128,81 @@
         </is>
       </c>
       <c r="U11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>■</t>
         </is>
@@ -1445,38 +2210,40 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1491,12 +2258,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1506,7 +2273,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1516,25 +2283,100 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>■</t>
         </is>
@@ -1542,38 +2384,42 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1583,17 +2429,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1603,7 +2449,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1613,17 +2459,17 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1633,13 +2479,88 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1651,24 +2572,24 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1677,12 +2598,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1692,7 +2613,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1712,7 +2633,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1732,13 +2653,88 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1750,33 +2746,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1806,12 +2802,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1831,13 +2827,88 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1850,32 +2921,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1885,7 +2952,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1905,12 +2972,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1925,10 +2992,85 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>■</t>
         </is>
@@ -1936,34 +3078,32 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>2</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1972,22 +3112,22 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1997,17 +3137,17 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2017,23 +3157,98 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
           <t>x</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>■</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2045,33 +3260,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2081,12 +3296,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2101,12 +3316,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2116,7 +3331,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2125,6 +3340,81 @@
         </is>
       </c>
       <c r="U18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -2132,7 +3422,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2155,17 +3445,13 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2189,12 +3475,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2214,7 +3500,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2228,6 +3514,81 @@
         </is>
       </c>
       <c r="U19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -2235,104 +3596,1355 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>x</t>
         </is>

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,91 +453,85 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="O1" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="1" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -709,16 +703,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -824,11 +808,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -850,18 +838,18 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="AB3" t="n">
+        <v>7</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AD3" t="n">
-        <v>2</v>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -878,15 +866,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -946,8 +926,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>2</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -992,8 +974,10 @@
       <c r="U4" t="n">
         <v>1</v>
       </c>
-      <c r="V4" t="n">
-        <v>1</v>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -1018,18 +1002,18 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="AB4" t="n">
+        <v>1</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AD4" t="n">
-        <v>2</v>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1046,14 +1030,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AH4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2</v>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1105,75 +1085,85 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>4</v>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="R5" t="n">
-        <v>2</v>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>1</v>
       </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
         <v>3</v>
       </c>
       <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="Z5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="AE5" t="n">
         <v>4</v>
@@ -1184,16 +1174,12 @@
         </is>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1235,98 +1221,104 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>16</v>
-      </c>
-      <c r="N6" t="n">
-        <v>16</v>
-      </c>
-      <c r="O6" t="n">
-        <v>13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>16</v>
-      </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
         <v>1</v>
       </c>
       <c r="AC6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" t="n">
-        <v>14</v>
-      </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1359,152 +1351,90 @@
         </is>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1536,188 +1466,180 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>5</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>■</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1737,82 +1659,82 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1827,38 +1749,28 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1875,25 +1787,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1918,123 +1830,113 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2046,27 +1948,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
         <v>7</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>x</t>
@@ -2099,147 +1999,137 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>5</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E12" t="n">
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2258,32 +2148,32 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2293,130 +2183,116 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>9</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>x</t>
@@ -2429,37 +2305,37 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2469,98 +2345,88 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2577,23 +2443,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E14" t="n">
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2608,7 +2476,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2638,62 +2506,62 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -2708,25 +2576,15 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -2734,45 +2592,47 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2787,17 +2647,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2807,62 +2667,62 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2872,43 +2732,33 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2921,28 +2771,32 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
       <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2957,17 +2811,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2977,147 +2831,139 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="C17" t="n">
+        <v>2</v>
       </c>
       <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
       <c r="F17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3127,128 +2973,118 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3265,23 +3101,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3291,67 +3129,67 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -3361,60 +3199,50 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3422,7 +3250,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3439,19 +3267,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E19" t="n">
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3475,57 +3305,57 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3540,63 +3370,53 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3613,17 +3433,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3647,12 +3473,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3662,42 +3488,42 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3707,60 +3533,50 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -3768,7 +3584,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3780,20 +3596,26 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3817,57 +3639,57 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -3877,68 +3699,58 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3950,20 +3762,28 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3987,12 +3807,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4002,12 +3822,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4017,27 +3837,27 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4047,60 +3867,50 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4108,7 +3918,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4120,20 +3930,28 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -4157,12 +3975,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4172,12 +3990,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4187,27 +4005,27 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -4217,60 +4035,50 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -4278,7 +4086,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4290,20 +4098,26 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -4327,155 +4141,153 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>■</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4495,155 +4307,151 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
         <v>2</v>
       </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
       <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4663,288 +4471,1278 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>x</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>■</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>■</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>■</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
         <is>
           <t>x</t>
         </is>
